--- a/hardware/wroversp32freenove_mapping.xlsx
+++ b/hardware/wroversp32freenove_mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\superneiluj\OneDrive\Bureau\projet electronique\hornetkiller\Freenove_ESP32_WROVER_Board-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\superneiluj\OneDrive\Bureau\projet electronique\hornetkiller\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964B4AAE-1B20-4F9B-859D-CA764E141D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A0DA09-EDED-4AC9-9D7B-CAEDFD2EF610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D7778349-6BAC-4B27-8BB7-BCD39630D317}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D7778349-6BAC-4B27-8BB7-BCD39630D317}"/>
   </bookViews>
   <sheets>
     <sheet name="IO ESP-32Wrover" sheetId="2" r:id="rId1"/>
@@ -715,6 +715,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -755,54 +803,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,7 +1172,7 @@
   <dimension ref="D3:Z57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,129 +1186,129 @@
   <sheetData>
     <row r="3" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="28"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
     </row>
     <row r="8" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="28"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
     </row>
     <row r="9" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="31"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="13" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="4:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S14" s="19" t="s">
+      <c r="S14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="21" t="s">
+      <c r="T14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="V14" s="5" t="s">
+      <c r="V14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="W14" s="6"/>
-      <c r="Y14" s="11" t="s">
+      <c r="W14" s="22"/>
+      <c r="Y14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Z14" s="12"/>
+      <c r="Z14" s="28"/>
     </row>
     <row r="15" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S15" s="20"/>
-      <c r="T15" s="22"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="8"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="20"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="24"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="30"/>
     </row>
     <row r="16" spans="4:26" x14ac:dyDescent="0.25">
       <c r="S16" s="2">
@@ -1317,10 +1317,10 @@
       <c r="T16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="V16" s="7"/>
-      <c r="W16" s="8"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="14"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="24"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="30"/>
     </row>
     <row r="17" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S17" s="1">
@@ -1329,10 +1329,10 @@
       <c r="T17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V17" s="7"/>
-      <c r="W17" s="8"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="24"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="30"/>
     </row>
     <row r="18" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S18" s="1">
@@ -1341,10 +1341,10 @@
       <c r="T18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V18" s="7"/>
-      <c r="W18" s="8"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="14"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="24"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="30"/>
     </row>
     <row r="19" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S19" s="1">
@@ -1353,10 +1353,10 @@
       <c r="T19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V19" s="7"/>
-      <c r="W19" s="8"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="14"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="24"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="30"/>
     </row>
     <row r="20" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S20" s="1">
@@ -1365,10 +1365,10 @@
       <c r="T20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V20" s="7"/>
-      <c r="W20" s="8"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="14"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="24"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="30"/>
     </row>
     <row r="21" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S21" s="1">
@@ -1377,10 +1377,10 @@
       <c r="T21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V21" s="7"/>
-      <c r="W21" s="8"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="14"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="24"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="30"/>
     </row>
     <row r="22" spans="19:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S22" s="1">
@@ -1389,10 +1389,10 @@
       <c r="T22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V22" s="7"/>
-      <c r="W22" s="8"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="14"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="24"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="30"/>
     </row>
     <row r="23" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S23" s="1">
@@ -1401,10 +1401,10 @@
       <c r="T23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V23" s="7"/>
-      <c r="W23" s="8"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="14"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="24"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="30"/>
     </row>
     <row r="24" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S24" s="1">
@@ -1413,10 +1413,10 @@
       <c r="T24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V24" s="7"/>
-      <c r="W24" s="8"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="14"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="24"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="30"/>
     </row>
     <row r="25" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S25" s="1">
@@ -1425,10 +1425,10 @@
       <c r="T25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V25" s="7"/>
-      <c r="W25" s="8"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="14"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="24"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="30"/>
     </row>
     <row r="26" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S26" s="1">
@@ -1437,10 +1437,10 @@
       <c r="T26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="7"/>
-      <c r="W26" s="8"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="14"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="24"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="30"/>
     </row>
     <row r="27" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S27" s="1">
@@ -1449,10 +1449,10 @@
       <c r="T27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="7"/>
-      <c r="W27" s="8"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="14"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="24"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="30"/>
     </row>
     <row r="28" spans="19:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S28" s="1">
@@ -1461,25 +1461,25 @@
       <c r="T28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="7"/>
-      <c r="W28" s="8"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="14"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="24"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="30"/>
     </row>
     <row r="29" spans="19:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S29" s="1">
         <v>14</v>
       </c>
-      <c r="T29" s="34" t="s">
+      <c r="T29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="32" t="s">
+      <c r="U29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="V29" s="7"/>
-      <c r="W29" s="8"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="14"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="24"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="30"/>
     </row>
     <row r="30" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S30" s="1">
@@ -1488,10 +1488,10 @@
       <c r="T30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="V30" s="7"/>
-      <c r="W30" s="8"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="14"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="24"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="30"/>
     </row>
     <row r="31" spans="19:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S31" s="1">
@@ -1500,10 +1500,10 @@
       <c r="T31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V31" s="7"/>
-      <c r="W31" s="8"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="16"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="24"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="32"/>
     </row>
     <row r="32" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S32" s="1">
@@ -1512,8 +1512,8 @@
       <c r="T32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V32" s="7"/>
-      <c r="W32" s="8"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="24"/>
     </row>
     <row r="33" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S33" s="1">
@@ -1522,8 +1522,8 @@
       <c r="T33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V33" s="7"/>
-      <c r="W33" s="8"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="24"/>
     </row>
     <row r="34" spans="19:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S34" s="1">
@@ -1532,21 +1532,21 @@
       <c r="T34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V34" s="9"/>
-      <c r="W34" s="10"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="26"/>
     </row>
     <row r="36" spans="19:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S37" s="19" t="s">
+      <c r="S37" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="T37" s="21" t="s">
+      <c r="T37" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="19:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S38" s="20"/>
-      <c r="T38" s="22"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="20"/>
     </row>
     <row r="39" spans="19:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S39" s="2">
@@ -1579,7 +1579,7 @@
       <c r="T42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U42" s="17" t="s">
+      <c r="U42" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       <c r="T43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U43" s="18"/>
+      <c r="U43" s="34"/>
     </row>
     <row r="44" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S44" s="2">
@@ -1663,7 +1663,7 @@
       <c r="T52" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U52" s="32" t="s">
+      <c r="U52" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       <c r="T53" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U53" s="33" t="s">
+      <c r="U53" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       <c r="T54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U54" s="32" t="s">
+      <c r="U54" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1715,14 +1715,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="T37:T38"/>
     <mergeCell ref="D4:O10"/>
     <mergeCell ref="S14:S15"/>
     <mergeCell ref="T14:T15"/>
     <mergeCell ref="V14:W34"/>
     <mergeCell ref="Y14:Z31"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="T37:T38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
